--- a/hofer_list_and_player_per_game_version_2.xlsx
+++ b/hofer_list_and_player_per_game_version_2.xlsx
@@ -1552,7 +1552,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1616,7 +1616,7 @@
         <v>156</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>1948</v>
@@ -1625,12 +1625,12 @@
         <v>1962</v>
       </c>
       <c r="H30">
-        <v>3.24</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
@@ -2162,7 +2162,7 @@
         <v>156</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <v>1950</v>
@@ -2171,12 +2171,12 @@
         <v>1960</v>
       </c>
       <c r="H51">
-        <v>4.17</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2240,7 +2240,7 @@
         <v>156</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F54">
         <v>1999</v>
@@ -2249,12 +2249,12 @@
         <v>2019</v>
       </c>
       <c r="H54">
-        <v>7.35</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
@@ -2266,7 +2266,7 @@
         <v>156</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>1950</v>
@@ -2275,12 +2275,12 @@
         <v>1964</v>
       </c>
       <c r="H55">
-        <v>11.66</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -2370,7 +2370,7 @@
         <v>156</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>1950</v>
@@ -2379,12 +2379,12 @@
         <v>1959</v>
       </c>
       <c r="H59">
-        <v>7.13</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="B61" t="s">
         <v>67</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
@@ -2578,7 +2578,7 @@
         <v>156</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <v>1949</v>
@@ -2587,12 +2587,12 @@
         <v>1956</v>
       </c>
       <c r="H67">
-        <v>12.92</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="B72" t="s">
         <v>78</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
@@ -2760,7 +2760,7 @@
         <v>156</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F74">
         <v>1949</v>
@@ -2769,12 +2769,12 @@
         <v>1958</v>
       </c>
       <c r="H74">
-        <v>11.89</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>2546</v>
+        <v>2551</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>2559</v>
+        <v>2564</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>2617</v>
+        <v>2622</v>
       </c>
       <c r="B83" t="s">
         <v>89</v>
@@ -2994,7 +2994,7 @@
         <v>156</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F83">
         <v>1949</v>
@@ -3003,12 +3003,12 @@
         <v>1955</v>
       </c>
       <c r="H83">
-        <v>7.84</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>2676</v>
+        <v>2681</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="B85" t="s">
         <v>91</v>
@@ -3046,7 +3046,7 @@
         <v>156</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F85">
         <v>1947</v>
@@ -3055,12 +3055,12 @@
         <v>1954</v>
       </c>
       <c r="H85">
-        <v>5.28</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>2750</v>
+        <v>2755</v>
       </c>
       <c r="B86" t="s">
         <v>92</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>2795</v>
+        <v>2800</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="B88" t="s">
         <v>94</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>2963</v>
+        <v>2968</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="B90" t="s">
         <v>96</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="B91" t="s">
         <v>97</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>3209</v>
+        <v>3215</v>
       </c>
       <c r="B95" t="s">
         <v>101</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>3280</v>
+        <v>3286</v>
       </c>
       <c r="B96" t="s">
         <v>102</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>3350</v>
+        <v>3356</v>
       </c>
       <c r="B97" t="s">
         <v>103</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>3355</v>
+        <v>3361</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>3403</v>
+        <v>3409</v>
       </c>
       <c r="B99" t="s">
         <v>105</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>3575</v>
+        <v>3581</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>3583</v>
+        <v>3589</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>3599</v>
+        <v>3605</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="B103" t="s">
         <v>109</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>3758</v>
+        <v>3764</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>3824</v>
+        <v>3830</v>
       </c>
       <c r="B107" t="s">
         <v>113</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>3840</v>
+        <v>3846</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>3934</v>
+        <v>3940</v>
       </c>
       <c r="B109" t="s">
         <v>115</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>3989</v>
+        <v>3995</v>
       </c>
       <c r="B111" t="s">
         <v>117</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>3990</v>
+        <v>3996</v>
       </c>
       <c r="B112" t="s">
         <v>118</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>4011</v>
+        <v>4017</v>
       </c>
       <c r="B113" t="s">
         <v>119</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="B114" t="s">
         <v>120</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>4044</v>
+        <v>4050</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>4134</v>
+        <v>4140</v>
       </c>
       <c r="B116" t="s">
         <v>122</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>4168</v>
+        <v>4174</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>4220</v>
+        <v>4227</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="B119" t="s">
         <v>125</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>4264</v>
+        <v>4271</v>
       </c>
       <c r="B120" t="s">
         <v>126</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>4310</v>
+        <v>4317</v>
       </c>
       <c r="B121" t="s">
         <v>127</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>4344</v>
+        <v>4351</v>
       </c>
       <c r="B122" t="s">
         <v>128</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>4476</v>
+        <v>4483</v>
       </c>
       <c r="B123" t="s">
         <v>129</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>4502</v>
+        <v>4509</v>
       </c>
       <c r="B124" t="s">
         <v>130</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="B125" t="s">
         <v>131</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>4575</v>
+        <v>4582</v>
       </c>
       <c r="B126" t="s">
         <v>132</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>4605</v>
+        <v>4612</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>4620</v>
+        <v>4627</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
@@ -4164,7 +4164,7 @@
         <v>156</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128">
         <v>1950</v>
@@ -4173,12 +4173,12 @@
         <v>1960</v>
       </c>
       <c r="H128">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>4639</v>
+        <v>4646</v>
       </c>
       <c r="B129" t="s">
         <v>135</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>4703</v>
+        <v>4710</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>4816</v>
+        <v>4823</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>4818</v>
+        <v>4825</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>4832</v>
+        <v>4839</v>
       </c>
       <c r="B133" t="s">
         <v>139</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>4858</v>
+        <v>4865</v>
       </c>
       <c r="B134" t="s">
         <v>140</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>4863</v>
+        <v>4870</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>4901</v>
+        <v>4908</v>
       </c>
       <c r="B136" t="s">
         <v>142</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>4924</v>
+        <v>4931</v>
       </c>
       <c r="B137" t="s">
         <v>143</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>4941</v>
+        <v>4948</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>5051</v>
+        <v>5058</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
@@ -4450,7 +4450,7 @@
         <v>156</v>
       </c>
       <c r="E139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F139">
         <v>1950</v>
@@ -4459,12 +4459,12 @@
         <v>1959</v>
       </c>
       <c r="H139">
-        <v>9.42</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>5066</v>
+        <v>5073</v>
       </c>
       <c r="B140" t="s">
         <v>146</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>5080</v>
+        <v>5087</v>
       </c>
       <c r="B141" t="s">
         <v>147</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>5102</v>
+        <v>5109</v>
       </c>
       <c r="B142" t="s">
         <v>148</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>5105</v>
+        <v>5112</v>
       </c>
       <c r="B143" t="s">
         <v>149</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>5118</v>
+        <v>5125</v>
       </c>
       <c r="B144" t="s">
         <v>150</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>5162</v>
+        <v>5169</v>
       </c>
       <c r="B145" t="s">
         <v>151</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>5219</v>
+        <v>5226</v>
       </c>
       <c r="B146" t="s">
         <v>152</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="B147" t="s">
         <v>153</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>5246</v>
+        <v>5253</v>
       </c>
       <c r="B148" t="s">
         <v>154</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>5276</v>
+        <v>5283</v>
       </c>
       <c r="B149" t="s">
         <v>155</v>

--- a/hofer_list_and_player_per_game_version_2.xlsx
+++ b/hofer_list_and_player_per_game_version_2.xlsx
@@ -1521,7 +1521,7 @@
         <v>1986</v>
       </c>
       <c r="H26">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="27" spans="1:8">

--- a/hofer_list_and_player_per_game_version_2.xlsx
+++ b/hofer_list_and_player_per_game_version_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
   <si>
     <t>player_id</t>
   </si>
@@ -842,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1018,7 +1018,7 @@
         <v>156</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>1948</v>
@@ -1027,12 +1027,12 @@
         <v>1958</v>
       </c>
       <c r="H7">
-        <v>5.22</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1044,7 +1044,7 @@
         <v>156</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1949</v>
@@ -1053,12 +1053,12 @@
         <v>1958</v>
       </c>
       <c r="H8">
-        <v>9.56</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1382,7 +1382,7 @@
         <v>156</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>1949</v>
@@ -1391,12 +1391,12 @@
         <v>1955</v>
       </c>
       <c r="H21">
-        <v>2.9</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1538,7 +1538,7 @@
         <v>156</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>1949</v>
@@ -1547,12 +1547,12 @@
         <v>1957</v>
       </c>
       <c r="H27">
-        <v>4.14</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2240,7 +2240,7 @@
         <v>156</v>
       </c>
       <c r="E54">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F54">
         <v>1999</v>
@@ -2249,12 +2249,12 @@
         <v>2019</v>
       </c>
       <c r="H54">
-        <v>11.02</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B61" t="s">
         <v>67</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -2552,7 +2552,7 @@
         <v>156</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F66">
         <v>1972</v>
@@ -2561,12 +2561,12 @@
         <v>1982</v>
       </c>
       <c r="H66">
-        <v>11.74</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B72" t="s">
         <v>78</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="B95" t="s">
         <v>101</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="B96" t="s">
         <v>102</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="B97" t="s">
         <v>103</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="B99" t="s">
         <v>105</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="B103" t="s">
         <v>109</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="B107" t="s">
         <v>113</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="B109" t="s">
         <v>115</v>
@@ -3710,195 +3710,195 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>3995</v>
+        <v>3988</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="D111" t="s">
         <v>156</v>
       </c>
       <c r="E111">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="G111">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="H111">
-        <v>9.69</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112">
-        <v>1928</v>
+        <v>1980</v>
       </c>
       <c r="D112" t="s">
         <v>156</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F112">
-        <v>1951</v>
+        <v>2002</v>
       </c>
       <c r="G112">
-        <v>1962</v>
+        <v>2019</v>
       </c>
       <c r="H112">
-        <v>8.640000000000001</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>4017</v>
+        <v>3996</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C113">
-        <v>1977</v>
+        <v>1928</v>
       </c>
       <c r="D113" t="s">
         <v>156</v>
       </c>
       <c r="E113">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>1999</v>
+        <v>1951</v>
       </c>
       <c r="G113">
-        <v>2017</v>
+        <v>1962</v>
       </c>
       <c r="H113">
-        <v>5.44</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>4029</v>
+        <v>4017</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C114">
-        <v>1950</v>
+        <v>1977</v>
       </c>
       <c r="D114" t="s">
         <v>156</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F114">
-        <v>1973</v>
+        <v>1999</v>
       </c>
       <c r="G114">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="H114">
-        <v>1.82</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>4050</v>
+        <v>4029</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="D115" t="s">
         <v>156</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F115">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="G115">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="H115">
-        <v>4.21</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>4140</v>
+        <v>4050</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116">
-        <v>1960</v>
+        <v>1947</v>
       </c>
       <c r="D116" t="s">
         <v>156</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="G116">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="H116">
-        <v>8.44</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>4174</v>
+        <v>4140</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C117">
-        <v>1975</v>
+        <v>1960</v>
       </c>
       <c r="D117" t="s">
         <v>156</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="G117">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="H117">
-        <v>4.34</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>4227</v>
+        <v>4174</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="D118" t="s">
         <v>156</v>
@@ -3907,258 +3907,258 @@
         <v>18</v>
       </c>
       <c r="F118">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="G118">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>4266</v>
+        <v>4227</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C119">
-        <v>1932</v>
+        <v>1965</v>
       </c>
       <c r="D119" t="s">
         <v>156</v>
       </c>
       <c r="E119">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F119">
-        <v>1957</v>
+        <v>1988</v>
       </c>
       <c r="G119">
-        <v>1970</v>
+        <v>2005</v>
       </c>
       <c r="H119">
-        <v>4.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>4271</v>
+        <v>4266</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="D120" t="s">
         <v>156</v>
       </c>
       <c r="E120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="G120">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="H120">
-        <v>6.83</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>4317</v>
+        <v>4271</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="D121" t="s">
         <v>156</v>
       </c>
       <c r="E121">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F121">
-        <v>1977</v>
+        <v>1966</v>
       </c>
       <c r="G121">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="H121">
-        <v>8.98</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>4351</v>
+        <v>4317</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C122">
-        <v>1942</v>
+        <v>1953</v>
       </c>
       <c r="D122" t="s">
         <v>156</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F122">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="G122">
-        <v>1975</v>
+        <v>1997</v>
       </c>
       <c r="H122">
-        <v>6.91</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>4483</v>
+        <v>4351</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C123">
-        <v>1933</v>
+        <v>1942</v>
       </c>
       <c r="D123" t="s">
         <v>156</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="G123">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="H123">
-        <v>4.9</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>4509</v>
+        <v>4483</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124">
-        <v>1964</v>
+        <v>1933</v>
       </c>
       <c r="D124" t="s">
         <v>156</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F124">
-        <v>1990</v>
+        <v>1958</v>
       </c>
       <c r="G124">
-        <v>1997</v>
+        <v>1969</v>
       </c>
       <c r="H124">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>4537</v>
+        <v>4509</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C125">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D125" t="s">
         <v>156</v>
       </c>
       <c r="E125">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="G125">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="H125">
-        <v>6.16</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>4582</v>
+        <v>4536</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C126">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="D126" t="s">
         <v>156</v>
       </c>
       <c r="E126">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F126">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="G126">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>4612</v>
+        <v>4580</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="D127" t="s">
         <v>156</v>
       </c>
       <c r="E127">
+        <v>19</v>
+      </c>
+      <c r="F127">
+        <v>1993</v>
+      </c>
+      <c r="G127">
+        <v>2011</v>
+      </c>
+      <c r="H127">
         <v>11</v>
-      </c>
-      <c r="F127">
-        <v>1980</v>
-      </c>
-      <c r="G127">
-        <v>1991</v>
-      </c>
-      <c r="H127">
-        <v>4.53</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>4627</v>
+        <v>4610</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128">
-        <v>1925</v>
+        <v>1957</v>
       </c>
       <c r="D128" t="s">
         <v>156</v>
@@ -4167,128 +4167,128 @@
         <v>11</v>
       </c>
       <c r="F128">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="G128">
-        <v>1960</v>
+        <v>1991</v>
       </c>
       <c r="H128">
-        <v>3.41</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>4646</v>
+        <v>4625</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129">
-        <v>1949</v>
+        <v>1925</v>
       </c>
       <c r="D129" t="s">
         <v>156</v>
       </c>
       <c r="E129">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F129">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="G129">
-        <v>1983</v>
+        <v>1960</v>
       </c>
       <c r="H129">
-        <v>10.57</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>4710</v>
+        <v>4644</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130">
-        <v>1974</v>
+        <v>1949</v>
       </c>
       <c r="D130" t="s">
         <v>156</v>
       </c>
       <c r="E130">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>1997</v>
+        <v>1970</v>
       </c>
       <c r="G130">
-        <v>2014</v>
+        <v>1983</v>
       </c>
       <c r="H130">
-        <v>2.91</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>4823</v>
+        <v>4708</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D131" t="s">
         <v>156</v>
       </c>
       <c r="E131">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F131">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G131">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="H131">
-        <v>10.77</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>4825</v>
+        <v>4821</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="D132" t="s">
         <v>156</v>
       </c>
       <c r="E132">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F132">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="G132">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="H132">
-        <v>3.52</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>4839</v>
+        <v>4823</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C133">
-        <v>1948</v>
+        <v>1966</v>
       </c>
       <c r="D133" t="s">
         <v>156</v>
@@ -4297,428 +4297,454 @@
         <v>13</v>
       </c>
       <c r="F133">
-        <v>1971</v>
+        <v>1990</v>
       </c>
       <c r="G133">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H133">
-        <v>2.3</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>4865</v>
+        <v>4837</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134">
-        <v>1932</v>
+        <v>1948</v>
       </c>
       <c r="D134" t="s">
         <v>156</v>
       </c>
       <c r="E134">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>1956</v>
+        <v>1971</v>
       </c>
       <c r="G134">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="H134">
-        <v>8.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>4870</v>
+        <v>4863</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D135" t="s">
         <v>156</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G135">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="H135">
-        <v>8.81</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>4908</v>
+        <v>4868</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C136">
-        <v>1968</v>
+        <v>1934</v>
       </c>
       <c r="D136" t="s">
         <v>156</v>
       </c>
       <c r="E136">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F136">
-        <v>1994</v>
+        <v>1957</v>
       </c>
       <c r="G136">
-        <v>2006</v>
+        <v>1965</v>
       </c>
       <c r="H136">
-        <v>5.02</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>4931</v>
+        <v>4907</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C137">
-        <v>1982</v>
+        <v>1968</v>
       </c>
       <c r="D137" t="s">
         <v>156</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="G137">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="H137">
-        <v>2.66</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>4948</v>
+        <v>4930</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="D138" t="s">
         <v>156</v>
       </c>
       <c r="E138">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F138">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="G138">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="H138">
-        <v>5.51</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>5058</v>
+        <v>4947</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139">
-        <v>1928</v>
+        <v>1979</v>
       </c>
       <c r="D139" t="s">
         <v>156</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F139">
-        <v>1950</v>
+        <v>1998</v>
       </c>
       <c r="G139">
-        <v>1959</v>
+        <v>2012</v>
       </c>
       <c r="H139">
-        <v>8.48</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>5073</v>
+        <v>5056</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140">
-        <v>1976</v>
+        <v>1928</v>
       </c>
       <c r="D140" t="s">
         <v>156</v>
       </c>
       <c r="E140">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>1999</v>
+        <v>1950</v>
       </c>
       <c r="G140">
-        <v>2020</v>
+        <v>1959</v>
       </c>
       <c r="H140">
-        <v>4.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>5087</v>
+        <v>5071</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="D141" t="s">
         <v>156</v>
       </c>
       <c r="E141">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F141">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="G141">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="H141">
-        <v>7.92</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>5109</v>
+        <v>5085</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142">
-        <v>1939</v>
+        <v>1968</v>
       </c>
       <c r="D142" t="s">
         <v>156</v>
       </c>
       <c r="E142">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F142">
-        <v>1962</v>
+        <v>1990</v>
       </c>
       <c r="G142">
-        <v>1975</v>
+        <v>2005</v>
       </c>
       <c r="H142">
-        <v>15.67</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>5112</v>
+        <v>5107</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="D143" t="s">
         <v>156</v>
       </c>
       <c r="E143">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F143">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="G143">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="H143">
-        <v>5.18</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>5125</v>
+        <v>5110</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="D144" t="s">
         <v>156</v>
       </c>
       <c r="E144">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F144">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="G144">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="H144">
-        <v>2.98</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>5169</v>
+        <v>5123</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C145">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="D145" t="s">
         <v>156</v>
       </c>
       <c r="E145">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F145">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="G145">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="H145">
-        <v>13.85</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>5226</v>
+        <v>5167</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D146" t="s">
         <v>156</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F146">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="G146">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="H146">
-        <v>12.09</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>5231</v>
+        <v>5224</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C147">
-        <v>1936</v>
+        <v>1942</v>
       </c>
       <c r="D147" t="s">
         <v>156</v>
       </c>
       <c r="E147">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="G147">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="H147">
-        <v>24.31</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>5253</v>
+        <v>5229</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148">
-        <v>1980</v>
+        <v>1936</v>
       </c>
       <c r="D148" t="s">
         <v>156</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F148">
-        <v>2003</v>
+        <v>1960</v>
       </c>
       <c r="G148">
-        <v>2011</v>
+        <v>1973</v>
       </c>
       <c r="H148">
-        <v>8.91</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>5283</v>
+        <v>5251</v>
       </c>
       <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149">
+        <v>1980</v>
+      </c>
+      <c r="D149" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>2003</v>
+      </c>
+      <c r="G149">
+        <v>2011</v>
+      </c>
+      <c r="H149">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>5280</v>
+      </c>
+      <c r="B150" t="s">
         <v>155</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>1939</v>
       </c>
-      <c r="D149" t="s">
-        <v>156</v>
-      </c>
-      <c r="E149">
+      <c r="D150" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150">
         <v>12</v>
       </c>
-      <c r="F149">
+      <c r="F150">
         <v>1963</v>
       </c>
-      <c r="G149">
+      <c r="G150">
         <v>1975</v>
       </c>
-      <c r="H149">
+      <c r="H150">
         <v>10.8</v>
       </c>
     </row>
